--- a/database/industries/kaghaz/chekapa/cost/yearly.xlsx
+++ b/database/industries/kaghaz/chekapa/cost/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\kaghaz\chekapa\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\kaghaz\chekapa\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92066C40-098E-48E7-9E39-0F90F7721B6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="53">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -33,9 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/08</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/08</t>
   </si>
   <si>
@@ -48,6 +46,9 @@
     <t>دوازده ماهه منتهی به 1400/08</t>
   </si>
   <si>
+    <t>دوازده ماهه منتهی به 1401/08</t>
+  </si>
+  <si>
     <t>مواد مستقیم مصرفی</t>
   </si>
   <si>
@@ -97,9 +98,6 @@
   </si>
   <si>
     <t>تن</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>کاغذ آخال</t>
@@ -186,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,7 +354,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -368,7 +366,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -415,6 +413,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -450,6 +465,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,7 +633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -728,19 +760,19 @@
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>508371</v>
+        <v>926496</v>
       </c>
       <c r="F10" s="9">
-        <v>926496</v>
+        <v>1575812</v>
       </c>
       <c r="G10" s="9">
-        <v>1575812</v>
+        <v>1419693</v>
       </c>
       <c r="H10" s="9">
-        <v>1419693</v>
+        <v>4975314</v>
       </c>
       <c r="I10" s="9">
-        <v>4975314</v>
+        <v>7081732</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -750,19 +782,19 @@
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>74126</v>
+        <v>108272</v>
       </c>
       <c r="F11" s="11">
-        <v>108272</v>
+        <v>147070</v>
       </c>
       <c r="G11" s="11">
-        <v>147070</v>
+        <v>187538</v>
       </c>
       <c r="H11" s="11">
-        <v>187538</v>
+        <v>261275</v>
       </c>
       <c r="I11" s="11">
-        <v>261275</v>
+        <v>492633</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -772,19 +804,19 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>469573</v>
+        <v>779786</v>
       </c>
       <c r="F12" s="9">
-        <v>779786</v>
+        <v>834043</v>
       </c>
       <c r="G12" s="9">
-        <v>834043</v>
+        <v>1732454</v>
       </c>
       <c r="H12" s="9">
-        <v>1732454</v>
+        <v>2546170</v>
       </c>
       <c r="I12" s="9">
-        <v>2546170</v>
+        <v>3012219</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -794,19 +826,19 @@
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>1052070</v>
+        <v>1814554</v>
       </c>
       <c r="F13" s="13">
-        <v>1814554</v>
+        <v>2556925</v>
       </c>
       <c r="G13" s="13">
-        <v>2556925</v>
+        <v>3339685</v>
       </c>
       <c r="H13" s="13">
-        <v>3339685</v>
+        <v>7782759</v>
       </c>
       <c r="I13" s="13">
-        <v>7782759</v>
+        <v>10586584</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -838,19 +870,19 @@
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>1052070</v>
+        <v>1814554</v>
       </c>
       <c r="F15" s="13">
-        <v>1814554</v>
+        <v>2556925</v>
       </c>
       <c r="G15" s="13">
-        <v>2556925</v>
+        <v>3339685</v>
       </c>
       <c r="H15" s="13">
-        <v>3339685</v>
+        <v>7782759</v>
       </c>
       <c r="I15" s="13">
-        <v>7782759</v>
+        <v>10586584</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -860,19 +892,19 @@
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-2550</v>
+        <v>2347</v>
       </c>
       <c r="F16" s="9">
-        <v>2347</v>
+        <v>-3751</v>
       </c>
       <c r="G16" s="9">
-        <v>-3751</v>
+        <v>-15643</v>
       </c>
       <c r="H16" s="9">
-        <v>-15643</v>
+        <v>-283870</v>
       </c>
       <c r="I16" s="9">
-        <v>-283870</v>
+        <v>287008</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -904,19 +936,19 @@
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>1049520</v>
+        <v>1816901</v>
       </c>
       <c r="F18" s="15">
-        <v>1816901</v>
+        <v>2553174</v>
       </c>
       <c r="G18" s="15">
-        <v>2553174</v>
+        <v>3324042</v>
       </c>
       <c r="H18" s="15">
-        <v>3324042</v>
+        <v>7498889</v>
       </c>
       <c r="I18" s="15">
-        <v>7498889</v>
+        <v>10873592</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -926,19 +958,19 @@
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>121651</v>
+        <v>142517</v>
       </c>
       <c r="F19" s="11">
-        <v>142517</v>
+        <v>85885</v>
       </c>
       <c r="G19" s="11">
-        <v>85885</v>
+        <v>210129</v>
       </c>
       <c r="H19" s="11">
-        <v>210129</v>
+        <v>183938</v>
       </c>
       <c r="I19" s="11">
-        <v>183938</v>
+        <v>158526</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -948,19 +980,19 @@
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-142517</v>
+        <v>-85885</v>
       </c>
       <c r="F20" s="9">
-        <v>-85885</v>
+        <v>-210129</v>
       </c>
       <c r="G20" s="9">
-        <v>-210129</v>
+        <v>-183938</v>
       </c>
       <c r="H20" s="9">
-        <v>-183938</v>
+        <v>-158526</v>
       </c>
       <c r="I20" s="9">
-        <v>-158526</v>
+        <v>-441337</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -970,19 +1002,19 @@
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>1028654</v>
+        <v>1873533</v>
       </c>
       <c r="F21" s="13">
-        <v>1873533</v>
+        <v>2428930</v>
       </c>
       <c r="G21" s="13">
-        <v>2428930</v>
+        <v>3350233</v>
       </c>
       <c r="H21" s="13">
-        <v>3350233</v>
+        <v>7524301</v>
       </c>
       <c r="I21" s="13">
-        <v>7524301</v>
+        <v>10590781</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -1014,19 +1046,19 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>1028654</v>
+        <v>1873533</v>
       </c>
       <c r="F23" s="13">
-        <v>1873533</v>
+        <v>2428930</v>
       </c>
       <c r="G23" s="13">
-        <v>2428930</v>
+        <v>3350233</v>
       </c>
       <c r="H23" s="13">
-        <v>3350233</v>
+        <v>7524301</v>
       </c>
       <c r="I23" s="13">
-        <v>7524301</v>
+        <v>10590781</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -1099,92 +1131,92 @@
         <v>25</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
-        <v>26</v>
+      <c r="E29" s="9">
+        <v>2508</v>
       </c>
       <c r="F29" s="9">
-        <v>2508</v>
+        <v>524</v>
       </c>
       <c r="G29" s="9">
-        <v>524</v>
+        <v>771</v>
       </c>
       <c r="H29" s="9">
-        <v>771</v>
+        <v>1210</v>
       </c>
       <c r="I29" s="9">
-        <v>1210</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>26</v>
+      <c r="E30" s="11">
+        <v>1828</v>
       </c>
       <c r="F30" s="11">
-        <v>1828</v>
+        <v>1806</v>
       </c>
       <c r="G30" s="11">
-        <v>1806</v>
+        <v>2802</v>
       </c>
       <c r="H30" s="11">
-        <v>2802</v>
+        <v>5075</v>
       </c>
       <c r="I30" s="11">
-        <v>5075</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
-        <v>26</v>
+      <c r="E31" s="9">
+        <v>93364</v>
       </c>
       <c r="F31" s="9">
-        <v>93364</v>
+        <v>368981</v>
       </c>
       <c r="G31" s="9">
-        <v>368981</v>
+        <v>688175</v>
       </c>
       <c r="H31" s="9">
-        <v>688175</v>
+        <v>434874</v>
       </c>
       <c r="I31" s="9">
-        <v>434874</v>
+        <v>184970</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
-        <v>26</v>
+      <c r="E32" s="11">
+        <v>8701</v>
       </c>
       <c r="F32" s="11">
-        <v>8701</v>
+        <v>2199</v>
       </c>
       <c r="G32" s="11">
-        <v>2199</v>
+        <v>1332</v>
       </c>
       <c r="H32" s="11">
-        <v>1332</v>
+        <v>1481</v>
       </c>
       <c r="I32" s="11">
-        <v>1481</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -1194,19 +1226,19 @@
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15">
-        <v>0</v>
+        <v>106401</v>
       </c>
       <c r="F33" s="15">
-        <v>106401</v>
+        <v>373510</v>
       </c>
       <c r="G33" s="15">
-        <v>373510</v>
+        <v>693080</v>
       </c>
       <c r="H33" s="15">
-        <v>693080</v>
+        <v>442640</v>
       </c>
       <c r="I33" s="15">
-        <v>442640</v>
+        <v>189413</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
@@ -1241,7 +1273,7 @@
     </row>
     <row r="37" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -1279,92 +1311,92 @@
         <v>25</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>26</v>
+      <c r="E39" s="9">
+        <v>998</v>
       </c>
       <c r="F39" s="9">
-        <v>998</v>
+        <v>3750</v>
       </c>
       <c r="G39" s="9">
-        <v>3750</v>
+        <v>2045</v>
       </c>
       <c r="H39" s="9">
-        <v>2045</v>
+        <v>7286</v>
       </c>
       <c r="I39" s="9">
-        <v>7286</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
-        <v>26</v>
+      <c r="E40" s="11">
+        <v>14773</v>
       </c>
       <c r="F40" s="11">
-        <v>14773</v>
+        <v>19726</v>
       </c>
       <c r="G40" s="11">
-        <v>19726</v>
+        <v>17119</v>
       </c>
       <c r="H40" s="11">
-        <v>17119</v>
+        <v>38138</v>
       </c>
       <c r="I40" s="11">
-        <v>38138</v>
+        <v>40188</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
-        <v>26</v>
+      <c r="E41" s="9">
+        <v>540370</v>
       </c>
       <c r="F41" s="9">
-        <v>540370</v>
+        <v>542911</v>
       </c>
       <c r="G41" s="9">
-        <v>542911</v>
+        <v>333313</v>
       </c>
       <c r="H41" s="9">
-        <v>333313</v>
+        <v>201395</v>
       </c>
       <c r="I41" s="9">
-        <v>201395</v>
+        <v>332747</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
-        <v>26</v>
+      <c r="E42" s="11">
+        <v>38551</v>
       </c>
       <c r="F42" s="11">
-        <v>38551</v>
+        <v>33627</v>
       </c>
       <c r="G42" s="11">
-        <v>33627</v>
+        <v>27545</v>
       </c>
       <c r="H42" s="11">
-        <v>27545</v>
+        <v>28069</v>
       </c>
       <c r="I42" s="11">
-        <v>28069</v>
+        <v>37865</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
@@ -1374,19 +1406,19 @@
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15">
-        <v>0</v>
+        <v>594692</v>
       </c>
       <c r="F43" s="15">
-        <v>594692</v>
+        <v>600014</v>
       </c>
       <c r="G43" s="15">
-        <v>600014</v>
+        <v>380022</v>
       </c>
       <c r="H43" s="15">
-        <v>380022</v>
+        <v>274888</v>
       </c>
       <c r="I43" s="15">
-        <v>274888</v>
+        <v>413174</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -1421,7 +1453,7 @@
     </row>
     <row r="47" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -1459,92 +1491,92 @@
         <v>25</v>
       </c>
       <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
-        <v>26</v>
+      <c r="E49" s="9">
+        <v>2982</v>
       </c>
       <c r="F49" s="9">
-        <v>2982</v>
+        <v>3503</v>
       </c>
       <c r="G49" s="9">
-        <v>3503</v>
+        <v>1606</v>
       </c>
       <c r="H49" s="9">
-        <v>1606</v>
+        <v>6890</v>
       </c>
       <c r="I49" s="9">
-        <v>6890</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>26</v>
+      <c r="E50" s="11">
+        <v>14795</v>
       </c>
       <c r="F50" s="11">
-        <v>14795</v>
+        <v>18730</v>
       </c>
       <c r="G50" s="11">
-        <v>18730</v>
+        <v>14846</v>
       </c>
       <c r="H50" s="11">
-        <v>14846</v>
+        <v>42023</v>
       </c>
       <c r="I50" s="11">
-        <v>42023</v>
+        <v>40458</v>
       </c>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
-        <v>26</v>
+      <c r="E51" s="9">
+        <v>264753</v>
       </c>
       <c r="F51" s="9">
-        <v>264753</v>
+        <v>223717</v>
       </c>
       <c r="G51" s="9">
-        <v>223717</v>
+        <v>586614</v>
       </c>
       <c r="H51" s="9">
-        <v>586614</v>
+        <v>451299</v>
       </c>
       <c r="I51" s="9">
-        <v>451299</v>
+        <v>209442</v>
       </c>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>26</v>
+      <c r="E52" s="11">
+        <v>45053</v>
       </c>
       <c r="F52" s="11">
-        <v>45053</v>
+        <v>34494</v>
       </c>
       <c r="G52" s="11">
-        <v>34494</v>
+        <v>27396</v>
       </c>
       <c r="H52" s="11">
-        <v>27396</v>
+        <v>27903</v>
       </c>
       <c r="I52" s="11">
-        <v>27903</v>
+        <v>38497</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -1554,19 +1586,19 @@
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15">
-        <v>0</v>
+        <v>327583</v>
       </c>
       <c r="F53" s="15">
-        <v>327583</v>
+        <v>280444</v>
       </c>
       <c r="G53" s="15">
-        <v>280444</v>
+        <v>630462</v>
       </c>
       <c r="H53" s="15">
-        <v>630462</v>
+        <v>528115</v>
       </c>
       <c r="I53" s="15">
-        <v>528115</v>
+        <v>291223</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -1601,7 +1633,7 @@
     </row>
     <row r="57" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B57" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -1639,92 +1671,92 @@
         <v>25</v>
       </c>
       <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
-        <v>26</v>
+      <c r="E59" s="9">
+        <v>524</v>
       </c>
       <c r="F59" s="9">
-        <v>524</v>
+        <v>771</v>
       </c>
       <c r="G59" s="9">
-        <v>771</v>
+        <v>1210</v>
       </c>
       <c r="H59" s="9">
-        <v>1210</v>
+        <v>1606</v>
       </c>
       <c r="I59" s="9">
-        <v>1606</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
-        <v>26</v>
+      <c r="E60" s="11">
+        <v>1806</v>
       </c>
       <c r="F60" s="11">
-        <v>1806</v>
+        <v>2802</v>
       </c>
       <c r="G60" s="11">
-        <v>2802</v>
+        <v>5075</v>
       </c>
       <c r="H60" s="11">
-        <v>5075</v>
+        <v>1190</v>
       </c>
       <c r="I60" s="11">
-        <v>1190</v>
+        <v>920</v>
       </c>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C61" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>26</v>
+      <c r="E61" s="9">
+        <v>368981</v>
       </c>
       <c r="F61" s="9">
-        <v>368981</v>
+        <v>688175</v>
       </c>
       <c r="G61" s="9">
-        <v>688175</v>
+        <v>434874</v>
       </c>
       <c r="H61" s="9">
-        <v>434874</v>
+        <v>184970</v>
       </c>
       <c r="I61" s="9">
-        <v>184970</v>
+        <v>308275</v>
       </c>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D62" s="11"/>
-      <c r="E62" s="11" t="s">
-        <v>26</v>
+      <c r="E62" s="11">
+        <v>2199</v>
       </c>
       <c r="F62" s="11">
-        <v>2199</v>
+        <v>1332</v>
       </c>
       <c r="G62" s="11">
-        <v>1332</v>
+        <v>1481</v>
       </c>
       <c r="H62" s="11">
-        <v>1481</v>
+        <v>1647</v>
       </c>
       <c r="I62" s="11">
-        <v>1647</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
@@ -1734,19 +1766,19 @@
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15">
-        <v>0</v>
+        <v>373510</v>
       </c>
       <c r="F63" s="15">
-        <v>373510</v>
+        <v>693080</v>
       </c>
       <c r="G63" s="15">
-        <v>693080</v>
+        <v>442640</v>
       </c>
       <c r="H63" s="15">
-        <v>442640</v>
+        <v>189413</v>
       </c>
       <c r="I63" s="15">
-        <v>189413</v>
+        <v>311364</v>
       </c>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
@@ -1781,7 +1813,7 @@
     </row>
     <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1816,95 +1848,95 @@
         <v>24</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>26</v>
+      <c r="E69" s="9">
+        <v>72703</v>
       </c>
       <c r="F69" s="9">
-        <v>72703</v>
+        <v>25168</v>
       </c>
       <c r="G69" s="9">
-        <v>25168</v>
+        <v>101335</v>
       </c>
       <c r="H69" s="9">
-        <v>101335</v>
+        <v>248123</v>
       </c>
       <c r="I69" s="9">
-        <v>248123</v>
+        <v>344672</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>26</v>
+      <c r="E70" s="11">
+        <v>11112</v>
       </c>
       <c r="F70" s="11">
-        <v>11112</v>
+        <v>46154</v>
       </c>
       <c r="G70" s="11">
-        <v>46154</v>
+        <v>61890</v>
       </c>
       <c r="H70" s="11">
-        <v>61890</v>
+        <v>151241</v>
       </c>
       <c r="I70" s="11">
-        <v>151241</v>
+        <v>55719</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>26</v>
+      <c r="E71" s="9">
+        <v>37936</v>
       </c>
       <c r="F71" s="9">
-        <v>37936</v>
+        <v>208985</v>
       </c>
       <c r="G71" s="9">
-        <v>208985</v>
+        <v>403439</v>
       </c>
       <c r="H71" s="9">
-        <v>403439</v>
+        <v>253224</v>
       </c>
       <c r="I71" s="9">
-        <v>253224</v>
+        <v>257456</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
-        <v>26</v>
+      <c r="E72" s="11">
+        <v>83034</v>
       </c>
       <c r="F72" s="11">
-        <v>83034</v>
+        <v>36801</v>
       </c>
       <c r="G72" s="11">
-        <v>36801</v>
+        <v>41045</v>
       </c>
       <c r="H72" s="11">
-        <v>41045</v>
+        <v>66840</v>
       </c>
       <c r="I72" s="11">
-        <v>66840</v>
+        <v>158815</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
@@ -1914,19 +1946,19 @@
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
-        <v>0</v>
+        <v>204785</v>
       </c>
       <c r="F73" s="15">
-        <v>204785</v>
+        <v>317108</v>
       </c>
       <c r="G73" s="15">
-        <v>317108</v>
+        <v>607709</v>
       </c>
       <c r="H73" s="15">
-        <v>607709</v>
+        <v>719428</v>
       </c>
       <c r="I73" s="15">
-        <v>719428</v>
+        <v>816662</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
@@ -1961,7 +1993,7 @@
     </row>
     <row r="77" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -1996,95 +2028,95 @@
         <v>24</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="9" t="s">
-        <v>26</v>
+      <c r="E79" s="9">
+        <v>57727</v>
       </c>
       <c r="F79" s="9">
-        <v>57727</v>
+        <v>471251</v>
       </c>
       <c r="G79" s="9">
-        <v>471251</v>
+        <v>339746</v>
       </c>
       <c r="H79" s="9">
-        <v>339746</v>
+        <v>1560274</v>
       </c>
       <c r="I79" s="9">
-        <v>1560274</v>
+        <v>765214</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11" t="s">
-        <v>26</v>
+      <c r="E80" s="11">
+        <v>203717</v>
       </c>
       <c r="F80" s="11">
-        <v>203717</v>
+        <v>454828</v>
       </c>
       <c r="G80" s="11">
-        <v>454828</v>
+        <v>433883</v>
       </c>
       <c r="H80" s="11">
-        <v>433883</v>
+        <v>1750537</v>
       </c>
       <c r="I80" s="11">
-        <v>1750537</v>
+        <v>2078450</v>
       </c>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>26</v>
+      <c r="E81" s="9">
+        <v>307072</v>
       </c>
       <c r="F81" s="9">
-        <v>307072</v>
+        <v>324086</v>
       </c>
       <c r="G81" s="9">
-        <v>324086</v>
+        <v>192133</v>
       </c>
       <c r="H81" s="9">
-        <v>192133</v>
+        <v>558156</v>
       </c>
       <c r="I81" s="9">
-        <v>558156</v>
+        <v>1346172</v>
       </c>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>26</v>
+      <c r="E82" s="11">
+        <v>470303</v>
       </c>
       <c r="F82" s="11">
-        <v>470303</v>
+        <v>616248</v>
       </c>
       <c r="G82" s="11">
-        <v>616248</v>
+        <v>565650</v>
       </c>
       <c r="H82" s="11">
-        <v>565650</v>
+        <v>1203581</v>
       </c>
       <c r="I82" s="11">
-        <v>1203581</v>
+        <v>3585923</v>
       </c>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -2094,19 +2126,19 @@
       <c r="C83" s="15"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15">
-        <v>0</v>
+        <v>1038819</v>
       </c>
       <c r="F83" s="15">
-        <v>1038819</v>
+        <v>1866413</v>
       </c>
       <c r="G83" s="15">
-        <v>1866413</v>
+        <v>1531412</v>
       </c>
       <c r="H83" s="15">
-        <v>1531412</v>
+        <v>5072548</v>
       </c>
       <c r="I83" s="15">
-        <v>5072548</v>
+        <v>7775759</v>
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -2141,7 +2173,7 @@
     </row>
     <row r="87" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B87" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -2176,95 +2208,95 @@
         <v>24</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
-        <v>26</v>
+      <c r="E89" s="9">
+        <v>105262</v>
       </c>
       <c r="F89" s="9">
-        <v>105262</v>
+        <v>395084</v>
       </c>
       <c r="G89" s="9">
-        <v>395084</v>
+        <v>192958</v>
       </c>
       <c r="H89" s="9">
-        <v>192958</v>
+        <v>1463725</v>
       </c>
       <c r="I89" s="9">
-        <v>1463725</v>
+        <v>876614</v>
       </c>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
-        <v>26</v>
+      <c r="E90" s="11">
+        <v>168675</v>
       </c>
       <c r="F90" s="11">
-        <v>168675</v>
+        <v>439092</v>
       </c>
       <c r="G90" s="11">
-        <v>439092</v>
+        <v>344532</v>
       </c>
       <c r="H90" s="11">
-        <v>344532</v>
+        <v>1846059</v>
       </c>
       <c r="I90" s="11">
-        <v>1846059</v>
+        <v>2084447</v>
       </c>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
-        <v>26</v>
+      <c r="E91" s="9">
+        <v>136023</v>
       </c>
       <c r="F91" s="9">
-        <v>136023</v>
+        <v>129632</v>
       </c>
       <c r="G91" s="9">
-        <v>129632</v>
+        <v>342348</v>
       </c>
       <c r="H91" s="9">
-        <v>342348</v>
+        <v>553924</v>
       </c>
       <c r="I91" s="9">
-        <v>553924</v>
+        <v>593376</v>
       </c>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
-        <v>26</v>
+      <c r="E92" s="11">
+        <v>516536</v>
       </c>
       <c r="F92" s="11">
-        <v>516536</v>
+        <v>612004</v>
       </c>
       <c r="G92" s="11">
-        <v>612004</v>
+        <v>539855</v>
       </c>
       <c r="H92" s="11">
-        <v>539855</v>
+        <v>1111606</v>
       </c>
       <c r="I92" s="11">
-        <v>1111606</v>
+        <v>3527295</v>
       </c>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -2274,19 +2306,19 @@
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>0</v>
+        <v>926496</v>
       </c>
       <c r="F93" s="15">
-        <v>926496</v>
+        <v>1575812</v>
       </c>
       <c r="G93" s="15">
-        <v>1575812</v>
+        <v>1419693</v>
       </c>
       <c r="H93" s="15">
-        <v>1419693</v>
+        <v>4975314</v>
       </c>
       <c r="I93" s="15">
-        <v>4975314</v>
+        <v>7081732</v>
       </c>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -2321,7 +2353,7 @@
     </row>
     <row r="97" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2356,95 +2388,95 @@
         <v>24</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>26</v>
+      <c r="E99" s="9">
+        <v>25168</v>
       </c>
       <c r="F99" s="9">
-        <v>25168</v>
+        <v>101335</v>
       </c>
       <c r="G99" s="9">
-        <v>101335</v>
+        <v>248123</v>
       </c>
       <c r="H99" s="9">
-        <v>248123</v>
+        <v>344672</v>
       </c>
       <c r="I99" s="9">
-        <v>344672</v>
+        <v>233272</v>
       </c>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
-        <v>26</v>
+      <c r="E100" s="11">
+        <v>46154</v>
       </c>
       <c r="F100" s="11">
-        <v>46154</v>
+        <v>61890</v>
       </c>
       <c r="G100" s="11">
-        <v>61890</v>
+        <v>151241</v>
       </c>
       <c r="H100" s="11">
-        <v>151241</v>
+        <v>55719</v>
       </c>
       <c r="I100" s="11">
-        <v>55719</v>
+        <v>49722</v>
       </c>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
-        <v>26</v>
+      <c r="E101" s="9">
+        <v>208985</v>
       </c>
       <c r="F101" s="9">
-        <v>208985</v>
+        <v>403439</v>
       </c>
       <c r="G101" s="9">
-        <v>403439</v>
+        <v>253224</v>
       </c>
       <c r="H101" s="9">
-        <v>253224</v>
+        <v>257456</v>
       </c>
       <c r="I101" s="9">
-        <v>257456</v>
+        <v>1010252</v>
       </c>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D102" s="11"/>
-      <c r="E102" s="11" t="s">
-        <v>26</v>
+      <c r="E102" s="11">
+        <v>36801</v>
       </c>
       <c r="F102" s="11">
-        <v>36801</v>
+        <v>41045</v>
       </c>
       <c r="G102" s="11">
-        <v>41045</v>
+        <v>66840</v>
       </c>
       <c r="H102" s="11">
-        <v>66840</v>
+        <v>158815</v>
       </c>
       <c r="I102" s="11">
-        <v>158815</v>
+        <v>217443</v>
       </c>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -2454,19 +2486,19 @@
       <c r="C103" s="15"/>
       <c r="D103" s="15"/>
       <c r="E103" s="15">
-        <v>0</v>
+        <v>317108</v>
       </c>
       <c r="F103" s="15">
-        <v>317108</v>
+        <v>607709</v>
       </c>
       <c r="G103" s="15">
-        <v>607709</v>
+        <v>719428</v>
       </c>
       <c r="H103" s="15">
-        <v>719428</v>
+        <v>816662</v>
       </c>
       <c r="I103" s="15">
-        <v>816662</v>
+        <v>1510689</v>
       </c>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -2501,7 +2533,7 @@
     </row>
     <row r="107" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
@@ -2536,95 +2568,95 @@
         <v>24</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
-        <v>26</v>
+      <c r="E109" s="9">
+        <v>28988437</v>
       </c>
       <c r="F109" s="9">
-        <v>28988437</v>
+        <v>48030534</v>
       </c>
       <c r="G109" s="9">
-        <v>48030534</v>
+        <v>131433204</v>
       </c>
       <c r="H109" s="9">
-        <v>131433204</v>
+        <v>205060331</v>
       </c>
       <c r="I109" s="9">
-        <v>205060331</v>
+        <v>214615193</v>
       </c>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D110" s="11"/>
-      <c r="E110" s="11" t="s">
-        <v>26</v>
+      <c r="E110" s="11">
+        <v>6078775</v>
       </c>
       <c r="F110" s="11">
-        <v>6078775</v>
+        <v>25555925</v>
       </c>
       <c r="G110" s="11">
-        <v>25555925</v>
+        <v>22087794</v>
       </c>
       <c r="H110" s="11">
-        <v>22087794</v>
+        <v>29801182</v>
       </c>
       <c r="I110" s="11">
-        <v>29801182</v>
+        <v>46822689</v>
       </c>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D111" s="9"/>
-      <c r="E111" s="9" t="s">
-        <v>26</v>
+      <c r="E111" s="9">
+        <v>406324</v>
       </c>
       <c r="F111" s="9">
-        <v>406324</v>
+        <v>566384</v>
       </c>
       <c r="G111" s="9">
-        <v>566384</v>
+        <v>586245</v>
       </c>
       <c r="H111" s="9">
-        <v>586245</v>
+        <v>582293</v>
       </c>
       <c r="I111" s="9">
-        <v>582293</v>
+        <v>1391880</v>
       </c>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D112" s="11"/>
-      <c r="E112" s="11" t="s">
-        <v>26</v>
+      <c r="E112" s="11">
+        <v>9543041</v>
       </c>
       <c r="F112" s="11">
-        <v>9543041</v>
+        <v>16735334</v>
       </c>
       <c r="G112" s="11">
-        <v>16735334</v>
+        <v>30814565</v>
       </c>
       <c r="H112" s="11">
-        <v>30814565</v>
+        <v>45131668</v>
       </c>
       <c r="I112" s="11">
-        <v>45131668</v>
+        <v>96426837</v>
       </c>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
@@ -2659,7 +2691,7 @@
     </row>
     <row r="116" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B116" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
@@ -2694,95 +2726,95 @@
         <v>24</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D118" s="9"/>
-      <c r="E118" s="9" t="s">
-        <v>26</v>
+      <c r="E118" s="9">
+        <v>57842685</v>
       </c>
       <c r="F118" s="9">
-        <v>57842685</v>
+        <v>125666933</v>
       </c>
       <c r="G118" s="9">
-        <v>125666933</v>
+        <v>166134963</v>
       </c>
       <c r="H118" s="9">
-        <v>166134963</v>
+        <v>214146857</v>
       </c>
       <c r="I118" s="9">
-        <v>214146857</v>
+        <v>322331087</v>
       </c>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D119" s="11"/>
-      <c r="E119" s="11" t="s">
-        <v>26</v>
+      <c r="E119" s="11">
+        <v>13789819</v>
       </c>
       <c r="F119" s="11">
-        <v>13789819</v>
+        <v>23057285</v>
       </c>
       <c r="G119" s="11">
-        <v>23057285</v>
+        <v>25345114</v>
       </c>
       <c r="H119" s="11">
-        <v>25345114</v>
+        <v>45900073</v>
       </c>
       <c r="I119" s="11">
-        <v>45900073</v>
+        <v>51718175</v>
       </c>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C120" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D120" s="9"/>
-      <c r="E120" s="9" t="s">
-        <v>26</v>
+      <c r="E120" s="9">
+        <v>568262</v>
       </c>
       <c r="F120" s="9">
-        <v>568262</v>
+        <v>596941</v>
       </c>
       <c r="G120" s="9">
-        <v>596941</v>
+        <v>576434</v>
       </c>
       <c r="H120" s="9">
-        <v>576434</v>
+        <v>2771449</v>
       </c>
       <c r="I120" s="9">
-        <v>2771449</v>
+        <v>4045632</v>
       </c>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D121" s="11"/>
-      <c r="E121" s="11" t="s">
-        <v>26</v>
+      <c r="E121" s="11">
+        <v>12199502</v>
       </c>
       <c r="F121" s="11">
-        <v>12199502</v>
+        <v>18325988</v>
       </c>
       <c r="G121" s="11">
-        <v>18325988</v>
+        <v>20535487</v>
       </c>
       <c r="H121" s="11">
-        <v>20535487</v>
+        <v>42879369</v>
       </c>
       <c r="I121" s="11">
-        <v>42879369</v>
+        <v>94702839</v>
       </c>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -2817,7 +2849,7 @@
     </row>
     <row r="125" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -2852,95 +2884,95 @@
         <v>24</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
-        <v>26</v>
+      <c r="E127" s="9">
+        <v>35299128</v>
       </c>
       <c r="F127" s="9">
-        <v>35299128</v>
+        <v>112784470</v>
       </c>
       <c r="G127" s="9">
-        <v>112784470</v>
+        <v>120148194</v>
       </c>
       <c r="H127" s="9">
-        <v>120148194</v>
+        <v>212441945</v>
       </c>
       <c r="I127" s="9">
-        <v>212441945</v>
+        <v>310196037</v>
       </c>
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D128" s="11"/>
-      <c r="E128" s="11" t="s">
-        <v>26</v>
+      <c r="E128" s="11">
+        <v>11400811</v>
       </c>
       <c r="F128" s="11">
-        <v>11400811</v>
+        <v>23443246</v>
       </c>
       <c r="G128" s="11">
-        <v>23443246</v>
+        <v>23207059</v>
       </c>
       <c r="H128" s="11">
-        <v>23207059</v>
+        <v>43929729</v>
       </c>
       <c r="I128" s="11">
-        <v>43929729</v>
+        <v>51521257</v>
       </c>
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D129" s="9"/>
-      <c r="E129" s="9" t="s">
-        <v>26</v>
+      <c r="E129" s="9">
+        <v>513773</v>
       </c>
       <c r="F129" s="9">
-        <v>513773</v>
+        <v>579446</v>
       </c>
       <c r="G129" s="9">
-        <v>579446</v>
+        <v>583600</v>
       </c>
       <c r="H129" s="9">
-        <v>583600</v>
+        <v>1227399</v>
       </c>
       <c r="I129" s="9">
-        <v>1227399</v>
+        <v>2833128</v>
       </c>
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D130" s="11"/>
-      <c r="E130" s="11" t="s">
-        <v>26</v>
+      <c r="E130" s="11">
+        <v>11465074</v>
       </c>
       <c r="F130" s="11">
-        <v>11465074</v>
+        <v>17742332</v>
       </c>
       <c r="G130" s="11">
-        <v>17742332</v>
+        <v>19705614</v>
       </c>
       <c r="H130" s="11">
-        <v>19705614</v>
+        <v>39838225</v>
       </c>
       <c r="I130" s="11">
-        <v>39838225</v>
+        <v>91625192</v>
       </c>
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
@@ -2975,7 +3007,7 @@
     </row>
     <row r="134" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
@@ -3013,92 +3045,92 @@
         <v>25</v>
       </c>
       <c r="D136" s="9"/>
-      <c r="E136" s="9" t="s">
-        <v>26</v>
+      <c r="E136" s="9">
+        <v>48030534</v>
       </c>
       <c r="F136" s="9">
-        <v>48030534</v>
+        <v>131433204</v>
       </c>
       <c r="G136" s="9">
-        <v>131433204</v>
+        <v>205060331</v>
       </c>
       <c r="H136" s="9">
-        <v>205060331</v>
+        <v>214615193</v>
       </c>
       <c r="I136" s="9">
-        <v>214615193</v>
+        <v>202142114</v>
       </c>
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="11"/>
-      <c r="E137" s="11" t="s">
-        <v>26</v>
+      <c r="E137" s="11">
+        <v>25555925</v>
       </c>
       <c r="F137" s="11">
-        <v>25555925</v>
+        <v>22087794</v>
       </c>
       <c r="G137" s="11">
-        <v>22087794</v>
+        <v>29801182</v>
       </c>
       <c r="H137" s="11">
-        <v>29801182</v>
+        <v>46822689</v>
       </c>
       <c r="I137" s="11">
-        <v>46822689</v>
+        <v>54045652</v>
       </c>
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D138" s="9"/>
-      <c r="E138" s="9" t="s">
-        <v>26</v>
+      <c r="E138" s="9">
+        <v>566384</v>
       </c>
       <c r="F138" s="9">
-        <v>566384</v>
+        <v>586245</v>
       </c>
       <c r="G138" s="9">
-        <v>586245</v>
+        <v>582293</v>
       </c>
       <c r="H138" s="9">
-        <v>582293</v>
+        <v>1391880</v>
       </c>
       <c r="I138" s="9">
-        <v>1391880</v>
+        <v>3277113</v>
       </c>
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>25</v>
       </c>
       <c r="D139" s="11"/>
-      <c r="E139" s="11" t="s">
-        <v>26</v>
+      <c r="E139" s="11">
+        <v>16735334</v>
       </c>
       <c r="F139" s="11">
-        <v>16735334</v>
+        <v>30814565</v>
       </c>
       <c r="G139" s="11">
-        <v>30814565</v>
+        <v>45131668</v>
       </c>
       <c r="H139" s="11">
-        <v>45131668</v>
+        <v>96426837</v>
       </c>
       <c r="I139" s="11">
-        <v>96426837</v>
+        <v>214229557</v>
       </c>
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
@@ -3133,7 +3165,7 @@
     </row>
     <row r="143" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B143" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
@@ -3165,29 +3197,29 @@
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
-        <v>5726</v>
+        <v>9191</v>
       </c>
       <c r="F145" s="9">
-        <v>9191</v>
+        <v>21241</v>
       </c>
       <c r="G145" s="9">
-        <v>21241</v>
+        <v>24511</v>
       </c>
       <c r="H145" s="9">
-        <v>24511</v>
+        <v>10468</v>
       </c>
       <c r="I145" s="9">
-        <v>10468</v>
+        <v>7893</v>
       </c>
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
@@ -3209,7 +3241,7 @@
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="9"/>
@@ -3231,7 +3263,7 @@
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
@@ -3253,95 +3285,95 @@
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9">
-        <v>5898</v>
+        <v>18167</v>
       </c>
       <c r="F149" s="9">
-        <v>18167</v>
+        <v>42830</v>
       </c>
       <c r="G149" s="9">
-        <v>42830</v>
+        <v>52308</v>
       </c>
       <c r="H149" s="9">
-        <v>52308</v>
+        <v>203412</v>
       </c>
       <c r="I149" s="9">
-        <v>203412</v>
+        <v>160647</v>
       </c>
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
       <c r="E150" s="11">
-        <v>140711</v>
+        <v>149255</v>
       </c>
       <c r="F150" s="11">
-        <v>149255</v>
+        <v>166990</v>
       </c>
       <c r="G150" s="11">
-        <v>166990</v>
+        <v>135198</v>
       </c>
       <c r="H150" s="11">
-        <v>135198</v>
+        <v>255150</v>
       </c>
       <c r="I150" s="11">
-        <v>255150</v>
+        <v>420273</v>
       </c>
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9">
-        <v>96716</v>
+        <v>133045</v>
       </c>
       <c r="F151" s="9">
-        <v>133045</v>
+        <v>139384</v>
       </c>
       <c r="G151" s="9">
-        <v>139384</v>
+        <v>692160</v>
       </c>
       <c r="H151" s="9">
-        <v>692160</v>
+        <v>740286</v>
       </c>
       <c r="I151" s="9">
-        <v>740286</v>
+        <v>742937</v>
       </c>
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
       <c r="E152" s="11">
-        <v>115451</v>
+        <v>149243</v>
       </c>
       <c r="F152" s="11">
-        <v>149243</v>
+        <v>227650</v>
       </c>
       <c r="G152" s="11">
-        <v>227650</v>
+        <v>286101</v>
       </c>
       <c r="H152" s="11">
-        <v>286101</v>
+        <v>449016</v>
       </c>
       <c r="I152" s="11">
-        <v>449016</v>
+        <v>717383</v>
       </c>
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="9"/>
@@ -3363,24 +3395,24 @@
     </row>
     <row r="154" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11">
-        <v>105071</v>
+        <v>320885</v>
       </c>
       <c r="F154" s="11">
-        <v>320885</v>
+        <v>235948</v>
       </c>
       <c r="G154" s="11">
-        <v>235948</v>
+        <v>542176</v>
       </c>
       <c r="H154" s="11">
-        <v>542176</v>
+        <v>887838</v>
       </c>
       <c r="I154" s="11">
-        <v>887838</v>
+        <v>963086</v>
       </c>
     </row>
     <row r="155" spans="2:9" x14ac:dyDescent="0.25">
@@ -3390,19 +3422,19 @@
       <c r="C155" s="15"/>
       <c r="D155" s="15"/>
       <c r="E155" s="15">
-        <v>469573</v>
+        <v>779786</v>
       </c>
       <c r="F155" s="15">
-        <v>779786</v>
+        <v>834043</v>
       </c>
       <c r="G155" s="15">
-        <v>834043</v>
+        <v>1732454</v>
       </c>
       <c r="H155" s="15">
-        <v>1732454</v>
+        <v>2546170</v>
       </c>
       <c r="I155" s="15">
-        <v>2546170</v>
+        <v>3012219</v>
       </c>
     </row>
   </sheetData>
